--- a/MODEA_results/delay_average_results.xlsx
+++ b/MODEA_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MODEA_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205FADB1-71FC-4089-A570-2B132B087635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D68108-9092-48BC-9046-18E61AACC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{F8BCE6C0-9ADD-43D4-912B-0545548C0B3A}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.62784287750000001</v>
+        <v>0.66593166699999995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.62684242599999995</v>
+        <v>0.67445540449999997</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.62747125100000001</v>
+        <v>0.6883816330000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.62629078399999993</v>
+        <v>0.67924939600000001</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.62882051750000001</v>
+        <v>0.68691770050000001</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.62784287750000001</v>
+        <v>0.66593166699999995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.62784287750000001</v>
+        <v>0.66593166699999995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.62684242599999995</v>
+        <v>0.67445540449999997</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.62784287750000001</v>
+        <v>0.66593166699999995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.62684242599999995</v>
+        <v>0.67445540449999997</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.62747125100000001</v>
+        <v>0.6883816330000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63959305600000005</v>
+        <v>0.63859965549999997</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.63048539300000006</v>
+        <v>0.62974609549999994</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.62645318699999997</v>
+        <v>0.6284218345</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62806967950000003</v>
+        <v>0.62832795149999998</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6280663595</v>
+        <v>0.62843777499999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.62784287750000001</v>
+        <v>0.66593166699999995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.62684242599999995</v>
+        <v>0.67445540449999997</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.62747125100000001</v>
+        <v>0.6883816330000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.62629078399999993</v>
+        <v>0.67924939600000001</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/MODEA_results/delay_average_results.xlsx
+++ b/MODEA_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MODEA_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D68108-9092-48BC-9046-18E61AACC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC3280-BA0D-47B6-A48F-8305D30BD743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{F8BCE6C0-9ADD-43D4-912B-0545548C0B3A}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.66593166699999995</v>
+        <v>1.4542775754999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.67445540449999997</v>
+        <v>1.5224482675</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.6883816330000001</v>
+        <v>1.4582306865000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.67924939600000001</v>
+        <v>1.4671022759999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.68691770050000001</v>
+        <v>1.474178904</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.66593166699999995</v>
+        <v>1.4542775754999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.66593166699999995</v>
+        <v>1.4542775754999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.67445540449999997</v>
+        <v>1.5224482675</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.66593166699999995</v>
+        <v>1.4542775754999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.67445540449999997</v>
+        <v>1.5224482675</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.6883816330000001</v>
+        <v>1.4582306865000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.63859965549999997</v>
+        <v>1.3462236945000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.62974609549999994</v>
+        <v>1.3609810770000002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6284218345</v>
+        <v>1.370192936</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.62832795149999998</v>
+        <v>1.3718565585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.62843777499999998</v>
+        <v>1.3684761639999998</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.66593166699999995</v>
+        <v>1.4542775754999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.67445540449999997</v>
+        <v>1.5224482675</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.6883816330000001</v>
+        <v>1.4582306865000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.67924939600000001</v>
+        <v>1.4671022759999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/MODEA_results/delay_average_results.xlsx
+++ b/MODEA_results/delay_average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MODEA_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC3280-BA0D-47B6-A48F-8305D30BD743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D41F5-21C0-40E4-86FB-D2715454B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{F8BCE6C0-9ADD-43D4-912B-0545548C0B3A}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{2B0731FC-0A8B-4FDF-AE85-9E93855CD7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3917B7A6-A953-4643-8B6B-6A35E825A6EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4804AC-4800-4712-BB1B-003EAE0E92CD}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BE3123-EFDB-449F-BC05-FF11F64A793F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07786F94-B9EE-4AA2-92D0-F473F7C3A32F}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.4542775754999999</v>
+        <v>1.459355564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.5224482675</v>
+        <v>1.5227231620000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.4582306865000001</v>
+        <v>1.5310849785</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.4671022759999999</v>
+        <v>1.5506049874999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.474178904</v>
+        <v>1.4692599584999999</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DC8817-DC90-4D03-965D-41EE2C88F09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D91D53B-3D00-4781-8646-B56427925C1B}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C48885-6EAA-41B5-B2AA-BAA58E64FAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C336B5-F2A9-4DDA-90A7-EE84B3465ED2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D53702-7601-4495-B27C-B6FDD6D863F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56B105-5ACD-42EF-9D8F-E279A9D27865}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14A3B4E-D444-4D81-B21B-07D9B2510D81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40259AF6-03DE-4CFD-BF1F-974F96481988}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68176D7-1D7E-4FD3-B5B4-69EC1A7ECF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68482F8-0418-4C3A-A50C-A1E66A034D20}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.4542775754999999</v>
+        <v>1.459355564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD2E01C-07AB-4A78-BDBA-9D8A24532D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233DCE39-3CD9-42B4-9EB5-B49F2B2EBBFC}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.4542775754999999</v>
+        <v>1.459355564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.5224482675</v>
+        <v>1.5227231620000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D53297-B7BC-4C79-9586-A1C7DFAC13D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934B39E-44F8-4573-AED6-A8794968580C}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.4542775754999999</v>
+        <v>1.459355564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.5224482675</v>
+        <v>1.5227231620000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.4582306865000001</v>
+        <v>1.5310849785</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E464E7DD-8E22-4B6D-A233-F9E01234BFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646DB8C4-D2BB-4C6F-AB50-71D802B8CC85}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.3462236945000001</v>
+        <v>1.3279990259999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3609810770000002</v>
+        <v>1.328099098</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.370192936</v>
+        <v>1.325690155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.3718565585</v>
+        <v>1.3300856669999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3684761639999998</v>
+        <v>1.325021687</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.4542775754999999</v>
+        <v>1.459355564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.5224482675</v>
+        <v>1.5227231620000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.4582306865000001</v>
+        <v>1.5310849785</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.4671022759999999</v>
+        <v>1.5506049874999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
